--- a/downloads/exported_products.xlsx
+++ b/downloads/exported_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2007,6 +2007,23 @@
       </c>
       <c r="E92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>95</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cctv camera</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2644.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3250</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/downloads/exported_products.xlsx
+++ b/downloads/exported_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2024,6 +2024,57 @@
       </c>
       <c r="E93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>96</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>folk</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>140</v>
+      </c>
+      <c r="D94" t="n">
+        <v>175</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>97</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>hdmi</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>350</v>
+      </c>
+      <c r="D95" t="n">
+        <v>415</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>98</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ceiling loss</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>856</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1128</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
